--- a/biology/Zoologie/Americocreagris_columbiana/Americocreagris_columbiana.xlsx
+++ b/biology/Zoologie/Americocreagris_columbiana/Americocreagris_columbiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Americocreagris columbiana, unique représentant du genre Americocreagris, est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des  États-Unis[1]. Elle se rencontre en Oregon et au Washington.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des  États-Unis. Elle se rencontre en Oregon et au Washington.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4,02 mm[2].
-La femelle décrite par Muchmore en 1969 mesure 4,96 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4,02 mm.
+La femelle décrite par Muchmore en 1969 mesure 4,96 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris columbiana par Chamberlin en 1962. Elle est placée dans le genre Americocreagris par Ćurčić en 1982[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris columbiana par Chamberlin en 1962. Elle est placée dans le genre Americocreagris par Ćurčić en 1982.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1962 : New and little-known false scorpions, principally from caves, belonging to the families Chthoniidae and Neobisiidae (Arachnida, Chelonethida). Bulletin of the American Museum of Natural History, no 123, p. 303-352 (texte intégral).
 Ćurčić, 1982 : Americocreagris, a new genus of pseudoscorpions from the United States. Bulletin de l'Académie Serbe des Sciences et des Arts, Classe des Sciences Naturelles et Mathématiques, vol. 80, no 22, p. 47-50.</t>
